--- a/data/previous_matches.xlsx
+++ b/data/previous_matches.xlsx
@@ -570,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -578,22 +578,22 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6330801808564476</v>
+        <v>0.7389300323293341</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2270292130141631</v>
+        <v>0.172938405407759</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1398906061293893</v>
+        <v>0.08813156226290697</v>
       </c>
       <c r="N2" t="n">
-        <v>2.126269755583506</v>
+        <v>2.389728502395761</v>
       </c>
       <c r="O2" t="n">
-        <v>0.646701031402331</v>
+        <v>0.4373330921964799</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -608,10 +608,10 @@
         <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>-2.13</v>
+        <v>-2.39</v>
       </c>
       <c r="U2" t="n">
-        <v>2.35</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="3">
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4374058120965174</v>
+        <v>0.5589281481425195</v>
       </c>
       <c r="L3" t="n">
-        <v>0.291683783741058</v>
+        <v>0.2576895868892524</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2709104041624246</v>
+        <v>0.1833822649682282</v>
       </c>
       <c r="N3" t="n">
-        <v>1.60390122003061</v>
+        <v>1.934474031316811</v>
       </c>
       <c r="O3" t="n">
-        <v>1.104414996228332</v>
+        <v>0.8078363817939369</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -683,10 +683,10 @@
         <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>-1.6</v>
+        <v>-1.93</v>
       </c>
       <c r="U3" t="n">
-        <v>1.9</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="4">
@@ -720,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -728,22 +728,22 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3144407684282528</v>
+        <v>0.4386984497323668</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2984142282694122</v>
+        <v>0.2914474733324206</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3871450033023349</v>
+        <v>0.2698540769352126</v>
       </c>
       <c r="N4" t="n">
-        <v>1.241736533554171</v>
+        <v>1.607542822529521</v>
       </c>
       <c r="O4" t="n">
-        <v>1.459849238176417</v>
+        <v>1.101009704138058</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.76</v>
+        <v>1.39</v>
       </c>
       <c r="U4" t="n">
-        <v>-1.46</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="5">
@@ -795,7 +795,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -803,22 +803,22 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2561261432503924</v>
+        <v>0.350419964850188</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2880343746905711</v>
+        <v>0.2999997884620224</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4558394820590365</v>
+        <v>0.3495802466877897</v>
       </c>
       <c r="N5" t="n">
-        <v>1.056412804441748</v>
+        <v>1.351259683012586</v>
       </c>
       <c r="O5" t="n">
-        <v>1.655552820867681</v>
+        <v>1.348740528525392</v>
       </c>
       <c r="P5" t="n">
         <v>2</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.94</v>
+        <v>1.65</v>
       </c>
       <c r="U5" t="n">
-        <v>-1.66</v>
+        <v>-1.35</v>
       </c>
     </row>
     <row r="6">
@@ -870,7 +870,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -878,22 +878,22 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1513885342070835</v>
+        <v>0.2004469857859812</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2362516406913115</v>
+        <v>0.2668896916791437</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6123598251016051</v>
+        <v>0.5326633225348751</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6904172433125619</v>
+        <v>0.8682306490370875</v>
       </c>
       <c r="O6" t="n">
-        <v>2.073331115996127</v>
+        <v>1.864879659283769</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-0.87</v>
       </c>
       <c r="U6" t="n">
-        <v>0.93</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="7">
@@ -945,7 +945,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -953,22 +953,22 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5193351711007076</v>
+        <v>0.6309485243296865</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2711950344970548</v>
+        <v>0.2280002044258624</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2094697944022376</v>
+        <v>0.141051271244451</v>
       </c>
       <c r="N7" t="n">
-        <v>1.829200547799178</v>
+        <v>2.120845777414922</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8996044177037675</v>
+        <v>0.6511540181592156</v>
       </c>
       <c r="P7" t="n">
         <v>2</v>
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1.17</v>
+        <v>0.88</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.9</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="8">
@@ -1020,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -1028,22 +1028,22 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4323152887136106</v>
+        <v>0.5073998420075401</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2925849805033717</v>
+        <v>0.2748337433294057</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2750997307830178</v>
+        <v>0.2177664146630542</v>
       </c>
       <c r="N8" t="n">
-        <v>1.589530846644204</v>
+        <v>1.797033269352026</v>
       </c>
       <c r="O8" t="n">
-        <v>1.117884172852425</v>
+        <v>0.9281329873185684</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -1058,10 +1058,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.41</v>
+        <v>1.2</v>
       </c>
       <c r="U8" t="n">
-        <v>-1.12</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -1103,22 +1103,22 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2689196283401476</v>
+        <v>0.3587174219922713</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2912353533155815</v>
+        <v>0.2999097495228193</v>
       </c>
       <c r="M9" t="n">
-        <v>0.439845018344271</v>
+        <v>0.3413728284849095</v>
       </c>
       <c r="N9" t="n">
-        <v>1.097994238336024</v>
+        <v>1.376062015499633</v>
       </c>
       <c r="O9" t="n">
-        <v>1.610770408348394</v>
+        <v>1.324028234977548</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="U9" t="n">
-        <v>-1.61</v>
+        <v>-1.32</v>
       </c>
     </row>
     <row r="10">
@@ -1170,7 +1170,7 @@
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1178,22 +1178,22 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5467558150180449</v>
+        <v>0.6429285654573382</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2620687730766535</v>
+        <v>0.2224784738718844</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1911754119053015</v>
+        <v>0.1345929606707774</v>
       </c>
       <c r="N10" t="n">
-        <v>1.902336218130788</v>
+        <v>2.151264170243899</v>
       </c>
       <c r="O10" t="n">
-        <v>0.8355950087925581</v>
+        <v>0.6262573558842166</v>
       </c>
       <c r="P10" t="n">
         <v>2</v>
@@ -1208,10 +1208,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.1</v>
+        <v>0.85</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.84</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="11">
@@ -1245,7 +1245,7 @@
         <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1253,22 +1253,22 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2483189026350401</v>
+        <v>0.332521861104894</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2858000085423908</v>
+        <v>0.2996255212936134</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4658810888225691</v>
+        <v>0.3678526176014926</v>
       </c>
       <c r="N11" t="n">
-        <v>1.030756716447511</v>
+        <v>1.297191104608296</v>
       </c>
       <c r="O11" t="n">
-        <v>1.683443275010098</v>
+        <v>1.403183374098091</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1283,10 +1283,10 @@
         <v>1</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.03</v>
+        <v>-0.3</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.68</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="12">
@@ -1320,7 +1320,7 @@
         <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1328,22 +1328,22 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2892239010680805</v>
+        <v>0.3536894745505191</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2952114009073172</v>
+        <v>0.2999837372548873</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4155646980246023</v>
+        <v>0.3463267881945936</v>
       </c>
       <c r="N12" t="n">
-        <v>1.162883104111559</v>
+        <v>1.361052160906445</v>
       </c>
       <c r="O12" t="n">
-        <v>1.541905494981124</v>
+        <v>1.338964101838668</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1358,10 +1358,10 @@
         <v>3</v>
       </c>
       <c r="T12" t="n">
-        <v>-1.16</v>
+        <v>-1.36</v>
       </c>
       <c r="U12" t="n">
-        <v>1.46</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="13">
@@ -1395,7 +1395,7 @@
         <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1403,22 +1403,22 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4734715522932791</v>
+        <v>0.5851472988512503</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2839996352719884</v>
+        <v>0.2476073808872354</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2425288124347326</v>
+        <v>0.1672453202615143</v>
       </c>
       <c r="N13" t="n">
-        <v>1.704414292151826</v>
+        <v>2.003049277440986</v>
       </c>
       <c r="O13" t="n">
-        <v>1.011586072576186</v>
+        <v>0.7493433416717783</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>-1.01</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="14">
@@ -1470,7 +1470,7 @@
         <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1478,22 +1478,22 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="K14" t="n">
-        <v>0.152196880297061</v>
+        <v>0.2044885513639401</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2368676803232339</v>
+        <v>0.2688641158695665</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6109354393797051</v>
+        <v>0.5266473327664933</v>
       </c>
       <c r="N14" t="n">
-        <v>0.693458321214417</v>
+        <v>0.882329769961387</v>
       </c>
       <c r="O14" t="n">
-        <v>2.069673998462349</v>
+        <v>1.848806114169047</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -1508,10 +1508,10 @@
         <v>3</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-0.88</v>
       </c>
       <c r="U14" t="n">
-        <v>0.93</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="15">
@@ -1545,7 +1545,7 @@
         <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1553,22 +1553,22 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6065480291244444</v>
+        <v>0.6968231654649898</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2387504263159255</v>
+        <v>0.1957748141276765</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1547015445596301</v>
+        <v>0.1074020204073337</v>
       </c>
       <c r="N15" t="n">
-        <v>2.058394513689259</v>
+        <v>2.286244310522646</v>
       </c>
       <c r="O15" t="n">
-        <v>0.7028550599948159</v>
+        <v>0.5179808753496776</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -1583,10 +1583,10 @@
         <v>3</v>
       </c>
       <c r="T15" t="n">
-        <v>-2.06</v>
+        <v>-2.29</v>
       </c>
       <c r="U15" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="16">
@@ -1620,7 +1620,7 @@
         <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5984197771657594</v>
+        <v>0.6774329491811951</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2421788517393089</v>
+        <v>0.2057222712329303</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1594013710949317</v>
+        <v>0.1168447795858746</v>
       </c>
       <c r="N16" t="n">
-        <v>2.037438183236587</v>
+        <v>2.238021118776516</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7203829650241039</v>
+        <v>0.556256609990554</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -1658,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.96</v>
+        <v>0.76</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.72</v>
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
@@ -1695,7 +1695,7 @@
         <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1703,22 +1703,22 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2644878857763744</v>
+        <v>0.3553863685584531</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2901896573711127</v>
+        <v>0.2999654076739352</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4453224568525129</v>
+        <v>0.3446482237676117</v>
       </c>
       <c r="N17" t="n">
-        <v>1.083653314700236</v>
+        <v>1.366124513349295</v>
       </c>
       <c r="O17" t="n">
-        <v>1.626157027928651</v>
+        <v>1.33391007897677</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>3</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.08</v>
+        <v>-1.37</v>
       </c>
       <c r="U17" t="n">
-        <v>1.37</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="18">
@@ -1770,7 +1770,7 @@
         <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1778,22 +1778,22 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3217864739065923</v>
+        <v>0.4187424125777597</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2990110197663267</v>
+        <v>0.2947538776445282</v>
       </c>
       <c r="M18" t="n">
-        <v>0.379202506327081</v>
+        <v>0.2865037097777121</v>
       </c>
       <c r="N18" t="n">
-        <v>1.264370441486104</v>
+        <v>1.550981115377807</v>
       </c>
       <c r="O18" t="n">
-        <v>1.43661853874757</v>
+        <v>1.154265006977665</v>
       </c>
       <c r="P18" t="n">
         <v>2</v>
@@ -1808,10 +1808,10 @@
         <v>1</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.26</v>
+        <v>-0.55</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.44</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="19">
@@ -1845,7 +1845,7 @@
         <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1853,22 +1853,22 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="K19" t="n">
-        <v>0.276005881037255</v>
+        <v>0.3590246368077298</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2927724144421132</v>
+        <v>0.2999033114073002</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4312217045206318</v>
+        <v>0.34107205178497</v>
       </c>
       <c r="N19" t="n">
-        <v>1.120790057553879</v>
+        <v>1.376977221830489</v>
       </c>
       <c r="O19" t="n">
-        <v>1.586437528004009</v>
+        <v>1.32311946676221</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -1883,10 +1883,10 @@
         <v>1</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.12</v>
+        <v>-0.38</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.59</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="20">
@@ -1920,7 +1920,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1928,22 +1928,22 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="K20" t="n">
-        <v>0.282722382079046</v>
+        <v>0.3805644980494101</v>
       </c>
       <c r="L20" t="n">
-        <v>0.294080013579061</v>
+        <v>0.2989182967851906</v>
       </c>
       <c r="M20" t="n">
-        <v>0.423197604341893</v>
+        <v>0.3205172051653994</v>
       </c>
       <c r="N20" t="n">
-        <v>1.142247159816199</v>
+        <v>1.440611790933421</v>
       </c>
       <c r="O20" t="n">
-        <v>1.56367282660474</v>
+        <v>1.260469912281389</v>
       </c>
       <c r="P20" t="n">
         <v>2</v>
@@ -1958,10 +1958,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.86</v>
+        <v>1.56</v>
       </c>
       <c r="U20" t="n">
-        <v>-1.56</v>
+        <v>-1.26</v>
       </c>
     </row>
     <row r="21">
@@ -1995,7 +1995,7 @@
         <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -2003,22 +2003,22 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2052154861449844</v>
+        <v>0.2554393836584357</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2692112726275548</v>
+        <v>0.2878465507202188</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5255732412274609</v>
+        <v>0.4567140656213455</v>
       </c>
       <c r="N21" t="n">
-        <v>0.8848577310625081</v>
+        <v>1.054164701695526</v>
       </c>
       <c r="O21" t="n">
-        <v>1.845930996309938</v>
+        <v>1.657988747584255</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -2033,10 +2033,10 @@
         <v>1</v>
       </c>
       <c r="T21" t="n">
-        <v>0.12</v>
+        <v>-0.05</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.85</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="22">
@@ -2070,7 +2070,7 @@
         <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3423592094786077</v>
+        <v>0.4646383076290289</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2999292921678905</v>
+        <v>0.2860857194382469</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3577114983535018</v>
+        <v>0.2492759729327242</v>
       </c>
       <c r="N22" t="n">
-        <v>1.327006920603714</v>
+        <v>1.680000642325334</v>
       </c>
       <c r="O22" t="n">
-        <v>1.373063787228396</v>
+        <v>1.033913638236419</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -2108,10 +2108,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.67</v>
+        <v>1.32</v>
       </c>
       <c r="U22" t="n">
-        <v>-1.37</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="23">
@@ -2145,7 +2145,7 @@
         <v>3</v>
       </c>
       <c r="H23" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -2153,22 +2153,22 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4412883251038413</v>
+        <v>0.5309540546379017</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2909649897592738</v>
+        <v>0.2674558205240409</v>
       </c>
       <c r="M23" t="n">
-        <v>0.267746685136885</v>
+        <v>0.2015901248380574</v>
       </c>
       <c r="N23" t="n">
-        <v>1.614829965070798</v>
+        <v>1.860317984437746</v>
       </c>
       <c r="O23" t="n">
-        <v>1.094205045169929</v>
+        <v>0.8722261950382131</v>
       </c>
       <c r="P23" t="n">
         <v>2</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1.39</v>
+        <v>1.14</v>
       </c>
       <c r="U23" t="n">
-        <v>-1.09</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="24">
@@ -2220,7 +2220,7 @@
         <v>3</v>
       </c>
       <c r="H24" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -2228,22 +2228,22 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5232222100900586</v>
+        <v>0.6046026332011448</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2699654400960121</v>
+        <v>0.2395780582533178</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2068123498139293</v>
+        <v>0.1558193085455374</v>
       </c>
       <c r="N24" t="n">
-        <v>1.839632070366188</v>
+        <v>2.053385957856753</v>
       </c>
       <c r="O24" t="n">
-        <v>0.8904024895377999</v>
+        <v>0.7070359838899299</v>
       </c>
       <c r="P24" t="n">
         <v>2</v>
@@ -2258,10 +2258,10 @@
         <v>1</v>
       </c>
       <c r="T24" t="n">
-        <v>-0.84</v>
+        <v>-1.05</v>
       </c>
       <c r="U24" t="n">
-        <v>0.11</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="25">
@@ -2295,7 +2295,7 @@
         <v>3</v>
       </c>
       <c r="H25" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -2303,22 +2303,22 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1739761503993712</v>
+        <v>0.2448774908776271</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2519849355393619</v>
+        <v>0.2847449104099485</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5740389140612671</v>
+        <v>0.4703775987124244</v>
       </c>
       <c r="N25" t="n">
-        <v>0.7739133867374755</v>
+        <v>1.01937738304283</v>
       </c>
       <c r="O25" t="n">
-        <v>1.974101677723163</v>
+        <v>1.695877706547222</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -2333,10 +2333,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>2.23</v>
+        <v>1.98</v>
       </c>
       <c r="U25" t="n">
-        <v>-1.97</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="26">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2370,7 +2370,7 @@
         <v>3</v>
       </c>
       <c r="H26" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -2378,22 +2378,22 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="K26" t="n">
-        <v>0.6344589295678431</v>
+        <v>0.6913273010028222</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2263985087202123</v>
+        <v>0.1986318264336773</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1391425617119446</v>
+        <v>0.1100408725635005</v>
       </c>
       <c r="N26" t="n">
-        <v>2.129775297423742</v>
+        <v>2.272613729442144</v>
       </c>
       <c r="O26" t="n">
-        <v>0.6438261938560461</v>
+        <v>0.5287544441241787</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -2408,10 +2408,10 @@
         <v>1</v>
       </c>
       <c r="T26" t="n">
-        <v>-1.13</v>
+        <v>-1.27</v>
       </c>
       <c r="U26" t="n">
-        <v>0.36</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="27">
@@ -2445,7 +2445,7 @@
         <v>4</v>
       </c>
       <c r="H27" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -2453,22 +2453,22 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="K27" t="n">
-        <v>0.4219911862488448</v>
+        <v>0.4960834312832234</v>
       </c>
       <c r="L27" t="n">
-        <v>0.2942661996866938</v>
+        <v>0.2780885961157435</v>
       </c>
       <c r="M27" t="n">
-        <v>0.2837426140644614</v>
+        <v>0.225827972601033</v>
       </c>
       <c r="N27" t="n">
-        <v>1.560239758433228</v>
+        <v>1.766338889965414</v>
       </c>
       <c r="O27" t="n">
-        <v>1.145494041880078</v>
+        <v>0.9555725139188427</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -2483,10 +2483,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="U27" t="n">
-        <v>-1.15</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="28">
@@ -2520,7 +2520,7 @@
         <v>4</v>
       </c>
       <c r="H28" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -2528,22 +2528,22 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5429065414727536</v>
+        <v>0.6679818686794803</v>
       </c>
       <c r="L28" t="n">
-        <v>0.2634124567312446</v>
+        <v>0.2104346429866937</v>
       </c>
       <c r="M28" t="n">
-        <v>0.1936810017960018</v>
+        <v>0.121583488333826</v>
       </c>
       <c r="N28" t="n">
-        <v>1.892132081149505</v>
+        <v>2.214380249025134</v>
       </c>
       <c r="O28" t="n">
-        <v>0.8444554621192499</v>
+        <v>0.5751851079881718</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -2558,10 +2558,10 @@
         <v>3</v>
       </c>
       <c r="T28" t="n">
-        <v>-1.89</v>
+        <v>-2.21</v>
       </c>
       <c r="U28" t="n">
-        <v>2.16</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="29">
@@ -2595,7 +2595,7 @@
         <v>4</v>
       </c>
       <c r="H29" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -2603,22 +2603,22 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="K29" t="n">
-        <v>0.1837647087009523</v>
+        <v>0.2574407848933036</v>
       </c>
       <c r="L29" t="n">
-        <v>0.257911691022498</v>
+        <v>0.2883892941013872</v>
       </c>
       <c r="M29" t="n">
-        <v>0.5583236002765497</v>
+        <v>0.4541699210053093</v>
       </c>
       <c r="N29" t="n">
-        <v>0.8092058171253549</v>
+        <v>1.060711648781298</v>
       </c>
       <c r="O29" t="n">
-        <v>1.932882491852147</v>
+        <v>1.650899057117315</v>
       </c>
       <c r="P29" t="n">
         <v>2</v>
@@ -2633,10 +2633,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>2.19</v>
+        <v>1.94</v>
       </c>
       <c r="U29" t="n">
-        <v>-1.93</v>
+        <v>-1.65</v>
       </c>
     </row>
     <row r="30">
@@ -2670,7 +2670,7 @@
         <v>4</v>
       </c>
       <c r="H30" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -2678,22 +2678,22 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="K30" t="n">
-        <v>0.3366718488808884</v>
+        <v>0.4478680476526127</v>
       </c>
       <c r="L30" t="n">
-        <v>0.2997833533859957</v>
+        <v>0.2896856346213147</v>
       </c>
       <c r="M30" t="n">
-        <v>0.3635447977331159</v>
+        <v>0.2624463177260726</v>
       </c>
       <c r="N30" t="n">
-        <v>1.309798900028661</v>
+        <v>1.633289777579153</v>
       </c>
       <c r="O30" t="n">
-        <v>1.390417746585343</v>
+        <v>1.077024587799533</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -2708,10 +2708,10 @@
         <v>1</v>
       </c>
       <c r="T30" t="n">
-        <v>-0.31</v>
+        <v>-0.63</v>
       </c>
       <c r="U30" t="n">
-        <v>-0.39</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="31">
@@ -2745,7 +2745,7 @@
         <v>4</v>
       </c>
       <c r="H31" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -2753,22 +2753,22 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="K31" t="n">
-        <v>0.4376137880796288</v>
+        <v>0.5603296132979366</v>
       </c>
       <c r="L31" t="n">
-        <v>0.2916459662528503</v>
+        <v>0.257172871658589</v>
       </c>
       <c r="M31" t="n">
-        <v>0.2707402456675209</v>
+        <v>0.1824975150434743</v>
       </c>
       <c r="N31" t="n">
-        <v>1.604487330491737</v>
+        <v>1.938161711552399</v>
       </c>
       <c r="O31" t="n">
-        <v>1.103866703255413</v>
+        <v>0.804665416789012</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -2783,10 +2783,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.4</v>
+        <v>1.06</v>
       </c>
       <c r="U31" t="n">
-        <v>-1.1</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="32">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2820,7 +2820,7 @@
         <v>4</v>
       </c>
       <c r="H32" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -2828,22 +2828,22 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="K32" t="n">
-        <v>0.5599493837508678</v>
+        <v>0.6444370298312159</v>
       </c>
       <c r="L32" t="n">
-        <v>0.257313313731506</v>
+        <v>0.2217721381866751</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1827373025176262</v>
+        <v>0.1337908319821091</v>
       </c>
       <c r="N32" t="n">
-        <v>1.937161464984109</v>
+        <v>2.155083227680323</v>
       </c>
       <c r="O32" t="n">
-        <v>0.8055252212843846</v>
+        <v>0.6231446341330023</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
@@ -2858,10 +2858,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>1.06</v>
+        <v>0.84</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="33">
@@ -2895,7 +2895,7 @@
         <v>4</v>
       </c>
       <c r="H33" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2903,22 +2903,22 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="K33" t="n">
-        <v>0.3240922828476342</v>
+        <v>0.4208897526752706</v>
       </c>
       <c r="L33" t="n">
-        <v>0.2991684897693258</v>
+        <v>0.2944337820968337</v>
       </c>
       <c r="M33" t="n">
-        <v>0.37673922738304</v>
+        <v>0.2846764652278957</v>
       </c>
       <c r="N33" t="n">
-        <v>1.271445338312228</v>
+        <v>1.557103040122646</v>
       </c>
       <c r="O33" t="n">
-        <v>1.429386171918446</v>
+        <v>1.148463177780521</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -2933,10 +2933,10 @@
         <v>1</v>
       </c>
       <c r="T33" t="n">
-        <v>-0.27</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="U33" t="n">
-        <v>-0.43</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="34">
@@ -2970,7 +2970,7 @@
         <v>5</v>
       </c>
       <c r="H34" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -2978,22 +2978,22 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="K34" t="n">
-        <v>0.4002331934788492</v>
+        <v>0.4856969790213909</v>
       </c>
       <c r="L34" t="n">
-        <v>0.2971417929637281</v>
+        <v>0.2809037586460765</v>
       </c>
       <c r="M34" t="n">
-        <v>0.3026250135574228</v>
+        <v>0.2333992623325326</v>
       </c>
       <c r="N34" t="n">
-        <v>1.497841373400276</v>
+        <v>1.737994695710249</v>
       </c>
       <c r="O34" t="n">
-        <v>1.205016833635997</v>
+        <v>0.9811015456436744</v>
       </c>
       <c r="P34" t="n">
         <v>6</v>
@@ -3008,10 +3008,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1.5</v>
+        <v>1.26</v>
       </c>
       <c r="U34" t="n">
-        <v>-1.21</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="35">
@@ -3045,7 +3045,7 @@
         <v>5</v>
       </c>
       <c r="H35" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -3053,22 +3053,22 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="K35" t="n">
-        <v>0.5097645147154864</v>
+        <v>0.570788980817463</v>
       </c>
       <c r="L35" t="n">
-        <v>0.2741294153437475</v>
+        <v>0.2532364694921427</v>
       </c>
       <c r="M35" t="n">
-        <v>0.2161060699407661</v>
+        <v>0.1759745496903943</v>
       </c>
       <c r="N35" t="n">
-        <v>1.803422959490207</v>
+        <v>1.965603411944532</v>
       </c>
       <c r="O35" t="n">
-        <v>0.9224476251660457</v>
+        <v>0.7811601185633256</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
@@ -3083,10 +3083,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>1.2</v>
+        <v>1.03</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.92</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="36">
@@ -3120,7 +3120,7 @@
         <v>5</v>
       </c>
       <c r="H36" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -3128,22 +3128,22 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="K36" t="n">
-        <v>0.283049703531098</v>
+        <v>0.3727682422661109</v>
       </c>
       <c r="L36" t="n">
-        <v>0.2941401015108269</v>
+        <v>0.2993943656116058</v>
       </c>
       <c r="M36" t="n">
-        <v>0.4228101949580751</v>
+        <v>0.3278373921222832</v>
       </c>
       <c r="N36" t="n">
-        <v>1.143289212104121</v>
+        <v>1.417699092409939</v>
       </c>
       <c r="O36" t="n">
-        <v>1.562570686385052</v>
+        <v>1.282906541978456</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3158,10 +3158,10 @@
         <v>1</v>
       </c>
       <c r="T36" t="n">
-        <v>-0.14</v>
+        <v>-0.42</v>
       </c>
       <c r="U36" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="37">
@@ -3195,7 +3195,7 @@
         <v>5</v>
       </c>
       <c r="H37" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -3203,22 +3203,22 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="K37" t="n">
-        <v>0.4257847529120076</v>
+        <v>0.4987703103998056</v>
       </c>
       <c r="L37" t="n">
-        <v>0.2936715138603166</v>
+        <v>0.2773332985400552</v>
       </c>
       <c r="M37" t="n">
-        <v>0.2805437332276758</v>
+        <v>0.2238963910601393</v>
       </c>
       <c r="N37" t="n">
-        <v>1.571025772596339</v>
+        <v>1.773644229739472</v>
       </c>
       <c r="O37" t="n">
-        <v>1.135302713543344</v>
+        <v>0.9490224717204729</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -3233,10 +3233,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.43</v>
+        <v>1.23</v>
       </c>
       <c r="U37" t="n">
-        <v>-1.14</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="38">
@@ -3270,7 +3270,7 @@
         <v>5</v>
       </c>
       <c r="H38" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -3278,22 +3278,22 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="K38" t="n">
-        <v>0.4767737251502732</v>
+        <v>0.5911464279247531</v>
       </c>
       <c r="L38" t="n">
-        <v>0.2831870350357655</v>
+        <v>0.2451800694426503</v>
       </c>
       <c r="M38" t="n">
-        <v>0.2400392398139614</v>
+        <v>0.1636735026325966</v>
       </c>
       <c r="N38" t="n">
-        <v>1.713508210486585</v>
+        <v>2.01861935321691</v>
       </c>
       <c r="O38" t="n">
-        <v>1.00330475447765</v>
+        <v>0.7362005773404401</v>
       </c>
       <c r="P38" t="n">
         <v>1</v>
@@ -3308,10 +3308,10 @@
         <v>1</v>
       </c>
       <c r="T38" t="n">
-        <v>-0.71</v>
+        <v>-1.02</v>
       </c>
       <c r="U38" t="n">
-        <v>-0</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="39">
@@ -3345,7 +3345,7 @@
         <v>5</v>
       </c>
       <c r="H39" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="K39" t="n">
-        <v>0.3339063450286257</v>
+        <v>0.4196951840092424</v>
       </c>
       <c r="L39" t="n">
-        <v>0.2996830417650702</v>
+        <v>0.2946129344761587</v>
       </c>
       <c r="M39" t="n">
-        <v>0.3664106132063042</v>
+        <v>0.285691881514599</v>
       </c>
       <c r="N39" t="n">
-        <v>1.301402076850947</v>
+        <v>1.553698486503886</v>
       </c>
       <c r="O39" t="n">
-        <v>1.398914881383983</v>
+        <v>1.151688579019956</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -3383,10 +3383,10 @@
         <v>3</v>
       </c>
       <c r="T39" t="n">
-        <v>-1.3</v>
+        <v>-1.55</v>
       </c>
       <c r="U39" t="n">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="40">
@@ -3420,7 +3420,7 @@
         <v>5</v>
       </c>
       <c r="H40" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -3428,22 +3428,22 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="K40" t="n">
-        <v>0.1880944372283284</v>
+        <v>0.2602949312513426</v>
       </c>
       <c r="L40" t="n">
-        <v>0.2603740469769342</v>
+        <v>0.2891390770690513</v>
       </c>
       <c r="M40" t="n">
-        <v>0.5515315157947374</v>
+        <v>0.4505659916796062</v>
       </c>
       <c r="N40" t="n">
-        <v>0.8246573586619195</v>
+        <v>1.070023870823079</v>
       </c>
       <c r="O40" t="n">
-        <v>1.914968594361146</v>
+        <v>1.64083705210787</v>
       </c>
       <c r="P40" t="n">
         <v>1</v>
@@ -3458,10 +3458,10 @@
         <v>3</v>
       </c>
       <c r="T40" t="n">
-        <v>-0.82</v>
+        <v>-1.07</v>
       </c>
       <c r="U40" t="n">
-        <v>1.09</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="41">
@@ -3495,7 +3495,7 @@
         <v>5</v>
       </c>
       <c r="H41" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -3503,22 +3503,22 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="K41" t="n">
-        <v>0.1288605748202264</v>
+        <v>0.1654894349901995</v>
       </c>
       <c r="L41" t="n">
-        <v>0.2173279728654547</v>
+        <v>0.2464233297663286</v>
       </c>
       <c r="M41" t="n">
-        <v>0.6538114523143188</v>
+        <v>0.588087235243472</v>
       </c>
       <c r="N41" t="n">
-        <v>0.603909697326134</v>
+        <v>0.7428916347369272</v>
       </c>
       <c r="O41" t="n">
-        <v>2.178762329808411</v>
+        <v>2.010685035496744</v>
       </c>
       <c r="P41" t="n">
         <v>2</v>
@@ -3533,10 +3533,10 @@
         <v>3</v>
       </c>
       <c r="T41" t="n">
-        <v>-0.6</v>
+        <v>-0.74</v>
       </c>
       <c r="U41" t="n">
-        <v>0.82</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="42">
@@ -3550,7 +3550,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
@@ -3570,7 +3570,7 @@
         <v>5</v>
       </c>
       <c r="H42" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -3578,22 +3578,22 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="K42" t="n">
-        <v>0.1865928485879121</v>
+        <v>0.2701713713225491</v>
       </c>
       <c r="L42" t="n">
-        <v>0.2595308622936089</v>
+        <v>0.2915188419828529</v>
       </c>
       <c r="M42" t="n">
-        <v>0.5538762891184791</v>
+        <v>0.4383097866945981</v>
       </c>
       <c r="N42" t="n">
-        <v>0.8193094080573453</v>
+        <v>1.1020329559505</v>
       </c>
       <c r="O42" t="n">
-        <v>1.921159729649046</v>
+        <v>1.606448202066647</v>
       </c>
       <c r="P42" t="n">
         <v>1</v>
@@ -3608,10 +3608,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>2.18</v>
+        <v>1.9</v>
       </c>
       <c r="U42" t="n">
-        <v>-1.92</v>
+        <v>-1.61</v>
       </c>
     </row>
     <row r="43">
@@ -3645,7 +3645,7 @@
         <v>6</v>
       </c>
       <c r="H43" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -3653,22 +3653,22 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4327932548110034</v>
+        <v>0.5630651380573148</v>
       </c>
       <c r="L43" t="n">
-        <v>0.2925023716823785</v>
+        <v>0.2561569443262712</v>
       </c>
       <c r="M43" t="n">
-        <v>0.2747043735066181</v>
+        <v>0.1807779176164139</v>
       </c>
       <c r="N43" t="n">
-        <v>1.590882136115389</v>
+        <v>1.945352358498216</v>
       </c>
       <c r="O43" t="n">
-        <v>1.116615492202233</v>
+        <v>0.798490697175513</v>
       </c>
       <c r="P43" t="n">
         <v>1</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="T43" t="n">
-        <v>-0.59</v>
+        <v>-0.95</v>
       </c>
       <c r="U43" t="n">
-        <v>-0.12</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="44">
@@ -3720,7 +3720,7 @@
         <v>6</v>
       </c>
       <c r="H44" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -3728,22 +3728,22 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="K44" t="n">
-        <v>0.23144685934552</v>
+        <v>0.3200616162393788</v>
       </c>
       <c r="L44" t="n">
-        <v>0.2801997030076546</v>
+        <v>0.2988839633518668</v>
       </c>
       <c r="M44" t="n">
-        <v>0.4883534376468254</v>
+        <v>0.3810544204087544</v>
       </c>
       <c r="N44" t="n">
-        <v>0.9745402810442148</v>
+        <v>1.259068812070003</v>
       </c>
       <c r="O44" t="n">
-        <v>1.745260015948131</v>
+        <v>1.44204722457813</v>
       </c>
       <c r="P44" t="n">
         <v>1</v>
@@ -3758,10 +3758,10 @@
         <v>3</v>
       </c>
       <c r="T44" t="n">
-        <v>-0.97</v>
+        <v>-1.26</v>
       </c>
       <c r="U44" t="n">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="45">
@@ -3795,7 +3795,7 @@
         <v>6</v>
       </c>
       <c r="H45" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -3803,22 +3803,22 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="K45" t="n">
-        <v>0.4554475778225797</v>
+        <v>0.5494876437536517</v>
       </c>
       <c r="L45" t="n">
-        <v>0.2881181153860388</v>
+        <v>0.2611030724147525</v>
       </c>
       <c r="M45" t="n">
-        <v>0.2564343067913815</v>
+        <v>0.1894092838315958</v>
       </c>
       <c r="N45" t="n">
-        <v>1.654460848853778</v>
+        <v>1.909566003675707</v>
       </c>
       <c r="O45" t="n">
-        <v>1.057421035760183</v>
+        <v>0.82933092390954</v>
       </c>
       <c r="P45" t="n">
         <v>2</v>
@@ -3833,10 +3833,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>1.35</v>
+        <v>1.09</v>
       </c>
       <c r="U45" t="n">
-        <v>-1.06</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="46">
@@ -3870,7 +3870,7 @@
         <v>6</v>
       </c>
       <c r="H46" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -3878,22 +3878,22 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4976003055445655</v>
+        <v>0.6169501180807273</v>
       </c>
       <c r="L46" t="n">
-        <v>0.2776635455985383</v>
+        <v>0.2342504738224656</v>
       </c>
       <c r="M46" t="n">
-        <v>0.2247361488568962</v>
+        <v>0.1487994080968071</v>
       </c>
       <c r="N46" t="n">
-        <v>1.770464462232235</v>
+        <v>2.085100828064648</v>
       </c>
       <c r="O46" t="n">
-        <v>0.9518719921692269</v>
+        <v>0.680648698112887</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -3908,10 +3908,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1.23</v>
+        <v>0.91</v>
       </c>
       <c r="U46" t="n">
-        <v>-0.95</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="47">
@@ -3945,7 +3945,7 @@
         <v>6</v>
       </c>
       <c r="H47" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -3953,22 +3953,22 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="K47" t="n">
-        <v>0.2859351482603855</v>
+        <v>0.3805606897787911</v>
       </c>
       <c r="L47" t="n">
-        <v>0.2946553816213759</v>
+        <v>0.2989185616383565</v>
       </c>
       <c r="M47" t="n">
-        <v>0.4194094701182385</v>
+        <v>0.3205207485828524</v>
       </c>
       <c r="N47" t="n">
-        <v>1.152460826402532</v>
+        <v>1.44060063097473</v>
       </c>
       <c r="O47" t="n">
-        <v>1.552883791976091</v>
+        <v>1.260480807386914</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
@@ -3983,10 +3983,10 @@
         <v>1</v>
       </c>
       <c r="T47" t="n">
-        <v>-0.15</v>
+        <v>-0.44</v>
       </c>
       <c r="U47" t="n">
-        <v>-0.55</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="48">
@@ -4020,7 +4020,7 @@
         <v>6</v>
       </c>
       <c r="H48" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -4028,22 +4028,22 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="K48" t="n">
-        <v>0.4043883529282251</v>
+        <v>0.4835609656685291</v>
       </c>
       <c r="L48" t="n">
-        <v>0.2966646369670717</v>
+        <v>0.2814618335503242</v>
       </c>
       <c r="M48" t="n">
-        <v>0.2989470101047033</v>
+        <v>0.2349772007811467</v>
       </c>
       <c r="N48" t="n">
-        <v>1.509829695751747</v>
+        <v>1.732144730555912</v>
       </c>
       <c r="O48" t="n">
-        <v>1.193505667281182</v>
+        <v>0.9863934358937645</v>
       </c>
       <c r="P48" t="n">
         <v>1</v>
@@ -4058,10 +4058,10 @@
         <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>1.49</v>
+        <v>1.27</v>
       </c>
       <c r="U48" t="n">
-        <v>-1.19</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="49">
@@ -4095,7 +4095,7 @@
         <v>6</v>
       </c>
       <c r="H49" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -4103,22 +4103,22 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="K49" t="n">
-        <v>0.3273558080937235</v>
+        <v>0.4353500322436488</v>
       </c>
       <c r="L49" t="n">
-        <v>0.2993673783779629</v>
+        <v>0.2920533935673739</v>
       </c>
       <c r="M49" t="n">
-        <v>0.3732768135283135</v>
+        <v>0.2725965741889773</v>
       </c>
       <c r="N49" t="n">
-        <v>1.281434802659133</v>
+        <v>1.59810349029832</v>
       </c>
       <c r="O49" t="n">
-        <v>1.419197818962904</v>
+        <v>1.109843116134306</v>
       </c>
       <c r="P49" t="n">
         <v>2</v>
@@ -4133,10 +4133,10 @@
         <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>1.72</v>
+        <v>1.4</v>
       </c>
       <c r="U49" t="n">
-        <v>-1.42</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="50">
@@ -4170,7 +4170,7 @@
         <v>7</v>
       </c>
       <c r="H50" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -4178,22 +4178,22 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="K50" t="n">
-        <v>0.2754218205527701</v>
+        <v>0.3750107615279491</v>
       </c>
       <c r="L50" t="n">
-        <v>0.2926519069571397</v>
+        <v>0.2992710720211704</v>
       </c>
       <c r="M50" t="n">
-        <v>0.4319262724900902</v>
+        <v>0.3257181664508805</v>
       </c>
       <c r="N50" t="n">
-        <v>1.11891736861545</v>
+        <v>1.424303356605018</v>
       </c>
       <c r="O50" t="n">
-        <v>1.58843072442741</v>
+        <v>1.276425571373812</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
@@ -4208,10 +4208,10 @@
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>1.88</v>
+        <v>1.58</v>
       </c>
       <c r="U50" t="n">
-        <v>-1.59</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="51">
@@ -4245,7 +4245,7 @@
         <v>7</v>
       </c>
       <c r="H51" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -4253,22 +4253,22 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="K51" t="n">
-        <v>0.3134960838337829</v>
+        <v>0.3833213876658657</v>
       </c>
       <c r="L51" t="n">
-        <v>0.2983268241029482</v>
+        <v>0.2987183759701479</v>
       </c>
       <c r="M51" t="n">
-        <v>0.3881770920632689</v>
+        <v>0.3179602363639864</v>
       </c>
       <c r="N51" t="n">
-        <v>1.238815075604297</v>
+        <v>1.448682538967745</v>
       </c>
       <c r="O51" t="n">
-        <v>1.462858100292755</v>
+        <v>1.252599085062107</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
@@ -4283,10 +4283,10 @@
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>1.76</v>
+        <v>1.55</v>
       </c>
       <c r="U51" t="n">
-        <v>-1.46</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="52">
@@ -4320,7 +4320,7 @@
         <v>7</v>
       </c>
       <c r="H52" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -4328,22 +4328,22 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="K52" t="n">
-        <v>0.2176152665583593</v>
+        <v>0.2852066561979793</v>
       </c>
       <c r="L52" t="n">
-        <v>0.2747701123028863</v>
+        <v>0.2945277228085077</v>
       </c>
       <c r="M52" t="n">
-        <v>0.5076146211387544</v>
+        <v>0.4202656209935129</v>
       </c>
       <c r="N52" t="n">
-        <v>0.9276159119779641</v>
+        <v>1.150147691402446</v>
       </c>
       <c r="O52" t="n">
-        <v>1.79761397571915</v>
+        <v>1.555324585789047</v>
       </c>
       <c r="P52" t="n">
         <v>1</v>
@@ -4358,10 +4358,10 @@
         <v>3</v>
       </c>
       <c r="T52" t="n">
-        <v>-0.93</v>
+        <v>-1.15</v>
       </c>
       <c r="U52" t="n">
-        <v>1.2</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="53">
@@ -4395,7 +4395,7 @@
         <v>7</v>
       </c>
       <c r="H53" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -4403,22 +4403,22 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="K53" t="n">
-        <v>0.3037744838290463</v>
+        <v>0.3894318315851069</v>
       </c>
       <c r="L53" t="n">
-        <v>0.2972829084589812</v>
+        <v>0.2982175461508793</v>
       </c>
       <c r="M53" t="n">
-        <v>0.3989426077119725</v>
+        <v>0.3123506222640139</v>
       </c>
       <c r="N53" t="n">
-        <v>1.20860635994612</v>
+        <v>1.4665130409062</v>
       </c>
       <c r="O53" t="n">
-        <v>1.494110731594899</v>
+        <v>1.235269412942921</v>
       </c>
       <c r="P53" t="n">
         <v>2</v>
@@ -4433,10 +4433,10 @@
         <v>1</v>
       </c>
       <c r="T53" t="n">
-        <v>-0.21</v>
+        <v>-0.47</v>
       </c>
       <c r="U53" t="n">
-        <v>-0.49</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="54">
@@ -4470,7 +4470,7 @@
         <v>7</v>
       </c>
       <c r="H54" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -4478,22 +4478,22 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="K54" t="n">
-        <v>0.4909981660301651</v>
+        <v>0.6088939231440907</v>
       </c>
       <c r="L54" t="n">
-        <v>0.279487812623664</v>
+        <v>0.2377465296905108</v>
       </c>
       <c r="M54" t="n">
-        <v>0.2295140213461709</v>
+        <v>0.1533595471653985</v>
       </c>
       <c r="N54" t="n">
-        <v>1.752482310714159</v>
+        <v>2.064428299122783</v>
       </c>
       <c r="O54" t="n">
-        <v>0.9680298766621768</v>
+        <v>0.6978251711867062</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -4508,10 +4508,10 @@
         <v>3</v>
       </c>
       <c r="T54" t="n">
-        <v>-1.75</v>
+        <v>-2.06</v>
       </c>
       <c r="U54" t="n">
-        <v>2.03</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="55">
@@ -4545,7 +4545,7 @@
         <v>7</v>
       </c>
       <c r="H55" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -4553,22 +4553,22 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="K55" t="n">
-        <v>0.6111312268109137</v>
+        <v>0.7067027772593595</v>
       </c>
       <c r="L55" t="n">
-        <v>0.236783142268193</v>
+        <v>0.1905656391613881</v>
       </c>
       <c r="M55" t="n">
-        <v>0.1520856309208933</v>
+        <v>0.1027315835792524</v>
       </c>
       <c r="N55" t="n">
-        <v>2.070176822700934</v>
+        <v>2.310673970939467</v>
       </c>
       <c r="O55" t="n">
-        <v>0.693040035030873</v>
+        <v>0.4987603898991453</v>
       </c>
       <c r="P55" t="n">
         <v>2</v>
@@ -4583,10 +4583,10 @@
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>0.93</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="U55" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="56">
@@ -4620,7 +4620,7 @@
         <v>7</v>
       </c>
       <c r="H56" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -4628,22 +4628,22 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="K56" t="n">
-        <v>0.5982214168541562</v>
+        <v>0.6762108746117611</v>
       </c>
       <c r="L56" t="n">
-        <v>0.2422615413827804</v>
+        <v>0.2063366989712809</v>
       </c>
       <c r="M56" t="n">
-        <v>0.1595170417630634</v>
+        <v>0.117452426416958</v>
       </c>
       <c r="N56" t="n">
-        <v>2.036925791945249</v>
+        <v>2.234969322806564</v>
       </c>
       <c r="O56" t="n">
-        <v>0.7208126666719705</v>
+        <v>0.5586939782221548</v>
       </c>
       <c r="P56" t="n">
         <v>2</v>
@@ -4658,10 +4658,10 @@
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>0.96</v>
+        <v>0.77</v>
       </c>
       <c r="U56" t="n">
-        <v>-0.72</v>
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="57">
@@ -4695,7 +4695,7 @@
         <v>7</v>
       </c>
       <c r="H57" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -4703,22 +4703,22 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="K57" t="n">
-        <v>0.2360961245702408</v>
+        <v>0.3179570431847593</v>
       </c>
       <c r="L57" t="n">
-        <v>0.2818516839442753</v>
+        <v>0.2987181152817102</v>
       </c>
       <c r="M57" t="n">
-        <v>0.4820521914854838</v>
+        <v>0.3833248415335304</v>
       </c>
       <c r="N57" t="n">
-        <v>0.9901400576549977</v>
+        <v>1.252589244835988</v>
       </c>
       <c r="O57" t="n">
-        <v>1.728008258400727</v>
+        <v>1.448692639882301</v>
       </c>
       <c r="P57" t="n">
         <v>2</v>
@@ -4733,10 +4733,10 @@
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>2.01</v>
+        <v>1.75</v>
       </c>
       <c r="U57" t="n">
-        <v>-1.73</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="58">
@@ -4750,7 +4750,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
@@ -4770,7 +4770,7 @@
         <v>7</v>
       </c>
       <c r="H58" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="K58" t="n">
-        <v>0.2972088950980208</v>
+        <v>0.387063123042956</v>
       </c>
       <c r="L58" t="n">
-        <v>0.296425439873505</v>
+        <v>0.2984210662421906</v>
       </c>
       <c r="M58" t="n">
-        <v>0.4063656650284743</v>
+        <v>0.3145158107148535</v>
       </c>
       <c r="N58" t="n">
-        <v>1.188052125167567</v>
+        <v>1.459610435371059</v>
       </c>
       <c r="O58" t="n">
-        <v>1.515522434958928</v>
+        <v>1.241968498386751</v>
       </c>
       <c r="P58" t="n">
         <v>2</v>
@@ -4808,10 +4808,10 @@
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>1.81</v>
+        <v>1.54</v>
       </c>
       <c r="U58" t="n">
-        <v>-1.52</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="59">
@@ -4845,7 +4845,7 @@
         <v>8</v>
       </c>
       <c r="H59" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -4853,22 +4853,22 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="K59" t="n">
-        <v>0.3300357178743996</v>
+        <v>0.4294206651088344</v>
       </c>
       <c r="L59" t="n">
-        <v>0.2995098994609725</v>
+        <v>0.2930763092459414</v>
       </c>
       <c r="M59" t="n">
-        <v>0.3704543826646279</v>
+        <v>0.2775030256452242</v>
       </c>
       <c r="N59" t="n">
-        <v>1.289617053084172</v>
+        <v>1.581338304572445</v>
       </c>
       <c r="O59" t="n">
-        <v>1.410873047454856</v>
+        <v>1.125585386181614</v>
       </c>
       <c r="P59" t="n">
         <v>2</v>
@@ -4883,10 +4883,10 @@
         <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>1.71</v>
+        <v>1.42</v>
       </c>
       <c r="U59" t="n">
-        <v>-1.41</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="60">
@@ -4920,7 +4920,7 @@
         <v>8</v>
       </c>
       <c r="H60" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -4928,22 +4928,22 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="K60" t="n">
-        <v>0.5604685273947257</v>
+        <v>0.6712061776866191</v>
       </c>
       <c r="L60" t="n">
-        <v>0.2571215152792767</v>
+        <v>0.2088371837010994</v>
       </c>
       <c r="M60" t="n">
-        <v>0.1824099573259975</v>
+        <v>0.1199566386122816</v>
       </c>
       <c r="N60" t="n">
-        <v>1.938527097463454</v>
+        <v>2.222455716760956</v>
       </c>
       <c r="O60" t="n">
-        <v>0.8043513872572693</v>
+        <v>0.5687070995379441</v>
       </c>
       <c r="P60" t="n">
         <v>1</v>
@@ -4958,10 +4958,10 @@
         <v>3</v>
       </c>
       <c r="T60" t="n">
-        <v>-1.94</v>
+        <v>-2.22</v>
       </c>
       <c r="U60" t="n">
-        <v>2.2</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="61">
@@ -4995,7 +4995,7 @@
         <v>8</v>
       </c>
       <c r="H61" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -5003,22 +5003,22 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="K61" t="n">
-        <v>0.3334341801198447</v>
+        <v>0.4082427195521328</v>
       </c>
       <c r="L61" t="n">
-        <v>0.2996639746169557</v>
+        <v>0.2961911929749833</v>
       </c>
       <c r="M61" t="n">
-        <v>0.3669018452631997</v>
+        <v>0.2955660874728839</v>
       </c>
       <c r="N61" t="n">
-        <v>1.29996651497649</v>
+        <v>1.520919351631382</v>
       </c>
       <c r="O61" t="n">
-        <v>1.400369510406555</v>
+        <v>1.182889455393635</v>
       </c>
       <c r="P61" t="n">
         <v>1</v>
@@ -5033,10 +5033,10 @@
         <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
       <c r="U61" t="n">
-        <v>-1.4</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="62">
@@ -5070,7 +5070,7 @@
         <v>8</v>
       </c>
       <c r="H62" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -5078,22 +5078,22 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="K62" t="n">
-        <v>0.2160461709504413</v>
+        <v>0.2761798900051673</v>
       </c>
       <c r="L62" t="n">
-        <v>0.274103785298145</v>
+        <v>0.2928081048350217</v>
       </c>
       <c r="M62" t="n">
-        <v>0.5098500437514137</v>
+        <v>0.431012005159811</v>
       </c>
       <c r="N62" t="n">
-        <v>0.9222422981494689</v>
+        <v>1.121347774850524</v>
       </c>
       <c r="O62" t="n">
-        <v>1.803653916552386</v>
+        <v>1.585844120314455</v>
       </c>
       <c r="P62" t="n">
         <v>1</v>
@@ -5108,10 +5108,10 @@
         <v>1</v>
       </c>
       <c r="T62" t="n">
-        <v>0.08</v>
+        <v>-0.12</v>
       </c>
       <c r="U62" t="n">
-        <v>-0.8</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="63">
@@ -5145,7 +5145,7 @@
         <v>8</v>
       </c>
       <c r="H63" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -5153,22 +5153,22 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="K63" t="n">
-        <v>0.3996779689703829</v>
+        <v>0.5099438783170477</v>
       </c>
       <c r="L63" t="n">
-        <v>0.297202916300296</v>
+        <v>0.2740756539681322</v>
       </c>
       <c r="M63" t="n">
-        <v>0.3031191147293212</v>
+        <v>0.2159804677148202</v>
       </c>
       <c r="N63" t="n">
-        <v>1.496236823211445</v>
+        <v>1.803907288919275</v>
       </c>
       <c r="O63" t="n">
-        <v>1.20656026048826</v>
+        <v>0.9220170571125926</v>
       </c>
       <c r="P63" t="n">
         <v>1</v>
@@ -5183,10 +5183,10 @@
         <v>1</v>
       </c>
       <c r="T63" t="n">
-        <v>-0.5</v>
+        <v>-0.8</v>
       </c>
       <c r="U63" t="n">
-        <v>-0.21</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="64">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -5220,7 +5220,7 @@
         <v>8</v>
       </c>
       <c r="H64" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -5228,22 +5228,22 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="K64" t="n">
-        <v>0.5201865040426983</v>
+        <v>0.5864792741172524</v>
       </c>
       <c r="L64" t="n">
-        <v>0.2709275826603963</v>
+        <v>0.2470722408630306</v>
       </c>
       <c r="M64" t="n">
-        <v>0.2088859132969054</v>
+        <v>0.166448485019717</v>
       </c>
       <c r="N64" t="n">
-        <v>1.831487094788491</v>
+        <v>2.006510063214788</v>
       </c>
       <c r="O64" t="n">
-        <v>0.8975853225511126</v>
+        <v>0.7464176959221815</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -5258,10 +5258,10 @@
         <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>1.17</v>
+        <v>0.99</v>
       </c>
       <c r="U64" t="n">
-        <v>-0.9</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="65">
@@ -5295,7 +5295,7 @@
         <v>8</v>
       </c>
       <c r="H65" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -5303,22 +5303,22 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="K65" t="n">
-        <v>0.4176314866771655</v>
+        <v>0.5189016052383246</v>
       </c>
       <c r="L65" t="n">
-        <v>0.2949160282614922</v>
+        <v>0.2713308413924904</v>
       </c>
       <c r="M65" t="n">
-        <v>0.2874524850613422</v>
+        <v>0.209767553369185</v>
       </c>
       <c r="N65" t="n">
-        <v>1.547810488292989</v>
+        <v>1.828035657107464</v>
       </c>
       <c r="O65" t="n">
-        <v>1.157273483445519</v>
+        <v>0.9006335015000453</v>
       </c>
       <c r="P65" t="n">
         <v>2</v>
@@ -5333,10 +5333,10 @@
         <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>1.45</v>
+        <v>1.17</v>
       </c>
       <c r="U65" t="n">
-        <v>-1.16</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="66">
@@ -5370,7 +5370,7 @@
         <v>8</v>
       </c>
       <c r="H66" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -5378,22 +5378,22 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="K66" t="n">
-        <v>0.4645308584160601</v>
+        <v>0.5519350326437312</v>
       </c>
       <c r="L66" t="n">
-        <v>0.2861103008428986</v>
+        <v>0.2602294605791193</v>
       </c>
       <c r="M66" t="n">
-        <v>0.2493588407410413</v>
+        <v>0.1878355067771494</v>
       </c>
       <c r="N66" t="n">
-        <v>1.679702876091079</v>
+        <v>1.916034558510313</v>
       </c>
       <c r="O66" t="n">
-        <v>1.034186823066023</v>
+        <v>0.8237359809105677</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
@@ -5408,10 +5408,10 @@
         <v>3</v>
       </c>
       <c r="T66" t="n">
-        <v>-1.68</v>
+        <v>-1.92</v>
       </c>
       <c r="U66" t="n">
-        <v>1.97</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="67">
@@ -5445,7 +5445,7 @@
         <v>9</v>
       </c>
       <c r="H67" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -5453,22 +5453,22 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="K67" t="n">
-        <v>0.2219403500861925</v>
+        <v>0.3052546625428552</v>
       </c>
       <c r="L67" t="n">
-        <v>0.2765527659388219</v>
+        <v>0.29745905423875</v>
       </c>
       <c r="M67" t="n">
-        <v>0.5015068839749857</v>
+        <v>0.3972862832183949</v>
       </c>
       <c r="N67" t="n">
-        <v>0.9423738161973996</v>
+        <v>1.213223041867316</v>
       </c>
       <c r="O67" t="n">
-        <v>1.781073417863779</v>
+        <v>1.489317903893935</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
@@ -5483,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="T67" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-1.21</v>
       </c>
       <c r="U67" t="n">
-        <v>1.22</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="68">
@@ -5520,7 +5520,7 @@
         <v>9</v>
       </c>
       <c r="H68" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -5528,22 +5528,22 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="K68" t="n">
-        <v>0.1675586509693731</v>
+        <v>0.2257669910150993</v>
       </c>
       <c r="L68" t="n">
-        <v>0.2478168146744307</v>
+        <v>0.2780649842965276</v>
       </c>
       <c r="M68" t="n">
-        <v>0.5846245343561962</v>
+        <v>0.4961680246883731</v>
       </c>
       <c r="N68" t="n">
-        <v>0.7504927675825501</v>
+        <v>0.9553659573418256</v>
       </c>
       <c r="O68" t="n">
-        <v>2.001690417743019</v>
+        <v>1.766569058361647</v>
       </c>
       <c r="P68" t="n">
         <v>0</v>
@@ -5558,10 +5558,10 @@
         <v>3</v>
       </c>
       <c r="T68" t="n">
-        <v>-0.75</v>
+        <v>-0.96</v>
       </c>
       <c r="U68" t="n">
-        <v>1</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="69">
@@ -5595,7 +5595,7 @@
         <v>9</v>
       </c>
       <c r="H69" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -5603,22 +5603,22 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="K69" t="n">
-        <v>0.3119328841032776</v>
+        <v>0.4249985721902916</v>
       </c>
       <c r="L69" t="n">
-        <v>0.2981767912386434</v>
+        <v>0.2937969753401241</v>
       </c>
       <c r="M69" t="n">
-        <v>0.3898903246580791</v>
+        <v>0.2812044524695844</v>
       </c>
       <c r="N69" t="n">
-        <v>1.233975443548476</v>
+        <v>1.568792691910999</v>
       </c>
       <c r="O69" t="n">
-        <v>1.467847765212881</v>
+        <v>1.137410332748877</v>
       </c>
       <c r="P69" t="n">
         <v>1</v>
@@ -5633,10 +5633,10 @@
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>1.77</v>
+        <v>1.43</v>
       </c>
       <c r="U69" t="n">
-        <v>-1.47</v>
+        <v>-1.14</v>
       </c>
     </row>
     <row r="70">
@@ -5670,7 +5670,7 @@
         <v>9</v>
       </c>
       <c r="H70" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -5678,22 +5678,22 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="K70" t="n">
-        <v>0.1951867337135471</v>
+        <v>0.2873463049346188</v>
       </c>
       <c r="L70" t="n">
-        <v>0.2642052389797238</v>
+        <v>0.2948980187574014</v>
       </c>
       <c r="M70" t="n">
-        <v>0.5406080273067291</v>
+        <v>0.4177556763079798</v>
       </c>
       <c r="N70" t="n">
-        <v>0.8497654401203651</v>
+        <v>1.156936933561258</v>
       </c>
       <c r="O70" t="n">
-        <v>1.886029320899911</v>
+        <v>1.548165047681341</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
@@ -5708,10 +5708,10 @@
         <v>1</v>
       </c>
       <c r="T70" t="n">
-        <v>0.15</v>
+        <v>-0.16</v>
       </c>
       <c r="U70" t="n">
-        <v>-0.89</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="71">
@@ -5745,7 +5745,7 @@
         <v>9</v>
       </c>
       <c r="H71" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -5753,22 +5753,22 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="K71" t="n">
-        <v>0.1399942580890923</v>
+        <v>0.1779575646771064</v>
       </c>
       <c r="L71" t="n">
-        <v>0.2271163018878996</v>
+        <v>0.2544570479296431</v>
       </c>
       <c r="M71" t="n">
-        <v>0.6328894400230081</v>
+        <v>0.5675853873932506</v>
       </c>
       <c r="N71" t="n">
-        <v>0.6470990761551765</v>
+        <v>0.7883297419609623</v>
       </c>
       <c r="O71" t="n">
-        <v>2.125784621956924</v>
+        <v>1.957213210109395</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="T71" t="n">
-        <v>-0.65</v>
+        <v>-0.79</v>
       </c>
       <c r="U71" t="n">
-        <v>0.87</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="72">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
@@ -5820,7 +5820,7 @@
         <v>9</v>
       </c>
       <c r="H72" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -5828,22 +5828,22 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="K72" t="n">
-        <v>0.4022365418751511</v>
+        <v>0.5221765820136759</v>
       </c>
       <c r="L72" t="n">
-        <v>0.2969160717444201</v>
+        <v>0.2702983310026208</v>
       </c>
       <c r="M72" t="n">
-        <v>0.3008473863804287</v>
+        <v>0.2075250869837033</v>
       </c>
       <c r="N72" t="n">
-        <v>1.503625697369873</v>
+        <v>1.836828077043648</v>
       </c>
       <c r="O72" t="n">
-        <v>1.199458230885706</v>
+        <v>0.8928735919537307</v>
       </c>
       <c r="P72" t="n">
         <v>1</v>
@@ -5858,10 +5858,10 @@
         <v>1</v>
       </c>
       <c r="T72" t="n">
-        <v>-0.5</v>
+        <v>-0.84</v>
       </c>
       <c r="U72" t="n">
-        <v>-0.2</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="73">
@@ -5895,7 +5895,7 @@
         <v>9</v>
       </c>
       <c r="H73" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -5903,22 +5903,22 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="K73" t="n">
-        <v>0.3729031047019521</v>
+        <v>0.4618466997486077</v>
       </c>
       <c r="L73" t="n">
-        <v>0.2993872649624103</v>
+        <v>0.2867181002342293</v>
       </c>
       <c r="M73" t="n">
-        <v>0.3277096303356376</v>
+        <v>0.2514352000171631</v>
       </c>
       <c r="N73" t="n">
-        <v>1.418096579068267</v>
+        <v>1.672258199480052</v>
       </c>
       <c r="O73" t="n">
-        <v>1.282516155969323</v>
+        <v>1.041023700285719</v>
       </c>
       <c r="P73" t="n">
         <v>2</v>
@@ -5933,10 +5933,10 @@
         <v>1</v>
       </c>
       <c r="T73" t="n">
-        <v>-0.42</v>
+        <v>-0.67</v>
       </c>
       <c r="U73" t="n">
-        <v>-0.28</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="74">
@@ -5970,7 +5970,7 @@
         <v>9</v>
       </c>
       <c r="H74" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -5978,22 +5978,22 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="K74" t="n">
-        <v>0.5018669342129952</v>
+        <v>0.6077574654671754</v>
       </c>
       <c r="L74" t="n">
-        <v>0.2764492294922769</v>
+        <v>0.238233663825923</v>
       </c>
       <c r="M74" t="n">
-        <v>0.2216838362947279</v>
+        <v>0.1540088707069016</v>
       </c>
       <c r="N74" t="n">
-        <v>1.782050032131263</v>
+        <v>2.061506060227449</v>
       </c>
       <c r="O74" t="n">
-        <v>0.9415007383764605</v>
+        <v>0.7002602759466279</v>
       </c>
       <c r="P74" t="n">
         <v>3</v>
@@ -6008,10 +6008,10 @@
         <v>3</v>
       </c>
       <c r="T74" t="n">
-        <v>-1.78</v>
+        <v>-2.06</v>
       </c>
       <c r="U74" t="n">
-        <v>2.06</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="75">
@@ -6045,7 +6045,7 @@
         <v>9</v>
       </c>
       <c r="H75" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -6053,22 +6053,22 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="K75" t="n">
-        <v>0.5058636244586776</v>
+        <v>0.5980249900738246</v>
       </c>
       <c r="L75" t="n">
-        <v>0.2752868688591008</v>
+        <v>0.2423433788389373</v>
       </c>
       <c r="M75" t="n">
-        <v>0.2188495066822216</v>
+        <v>0.1596316310872381</v>
       </c>
       <c r="N75" t="n">
-        <v>1.792877742235134</v>
+        <v>2.036418349060411</v>
       </c>
       <c r="O75" t="n">
-        <v>0.9318353889057656</v>
+        <v>0.7212382721006516</v>
       </c>
       <c r="P75" t="n">
         <v>3</v>
@@ -6083,10 +6083,10 @@
         <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>1.21</v>
+        <v>0.96</v>
       </c>
       <c r="U75" t="n">
-        <v>-0.93</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="76">
@@ -6120,7 +6120,7 @@
         <v>6</v>
       </c>
       <c r="H76" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -6128,22 +6128,22 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="K76" t="n">
-        <v>0.3719031273756788</v>
+        <v>0.4657314294655553</v>
       </c>
       <c r="L76" t="n">
-        <v>0.2994389555361565</v>
+        <v>0.2858345507267899</v>
       </c>
       <c r="M76" t="n">
-        <v>0.3286579170881647</v>
+        <v>0.2484340198076548</v>
       </c>
       <c r="N76" t="n">
-        <v>1.415148337663193</v>
+        <v>1.683028839123456</v>
       </c>
       <c r="O76" t="n">
-        <v>1.285412706800651</v>
+        <v>1.031136610149754</v>
       </c>
       <c r="P76" t="n">
         <v>2</v>
@@ -6158,10 +6158,10 @@
         <v>1</v>
       </c>
       <c r="T76" t="n">
-        <v>-0.42</v>
+        <v>-0.68</v>
       </c>
       <c r="U76" t="n">
-        <v>-0.29</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="77">
@@ -6170,7 +6170,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -6195,7 +6195,7 @@
         <v>6</v>
       </c>
       <c r="H77" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -6203,22 +6203,22 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="K77" t="n">
-        <v>0.3211245919949713</v>
+        <v>0.3876380423683861</v>
       </c>
       <c r="L77" t="n">
-        <v>0.2989632050388907</v>
+        <v>0.2983727545418725</v>
       </c>
       <c r="M77" t="n">
-        <v>0.379912202966138</v>
+        <v>0.3139892030897414</v>
       </c>
       <c r="N77" t="n">
-        <v>1.262336981023805</v>
+        <v>1.461286881647031</v>
       </c>
       <c r="O77" t="n">
-        <v>1.438699813937305</v>
+        <v>1.240340363811097</v>
       </c>
       <c r="P77" t="n">
         <v>0</v>
@@ -6233,10 +6233,10 @@
         <v>1</v>
       </c>
       <c r="T77" t="n">
-        <v>-0.26</v>
+        <v>-0.46</v>
       </c>
       <c r="U77" t="n">
-        <v>-0.44</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="78">
@@ -6270,7 +6270,7 @@
         <v>10</v>
       </c>
       <c r="H78" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -6278,22 +6278,22 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="K78" t="n">
-        <v>0.355782632736948</v>
+        <v>0.4612669714131363</v>
       </c>
       <c r="L78" t="n">
-        <v>0.2999601494432959</v>
+        <v>0.2868477873238078</v>
       </c>
       <c r="M78" t="n">
-        <v>0.3442572178197562</v>
+        <v>0.2518852412630559</v>
       </c>
       <c r="N78" t="n">
-        <v>1.36730804765414</v>
+        <v>1.670648701563217</v>
       </c>
       <c r="O78" t="n">
-        <v>1.332731802902565</v>
+        <v>1.042503511112975</v>
       </c>
       <c r="P78" t="n">
         <v>1</v>
@@ -6308,10 +6308,10 @@
         <v>1</v>
       </c>
       <c r="T78" t="n">
-        <v>-0.37</v>
+        <v>-0.67</v>
       </c>
       <c r="U78" t="n">
-        <v>-0.33</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="79">
@@ -6345,7 +6345,7 @@
         <v>10</v>
       </c>
       <c r="H79" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -6353,22 +6353,22 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="K79" t="n">
-        <v>0.4838293454842625</v>
+        <v>0.5727444611954814</v>
       </c>
       <c r="L79" t="n">
-        <v>0.281392109618142</v>
+        <v>0.2524850218997161</v>
       </c>
       <c r="M79" t="n">
-        <v>0.2347785448975955</v>
+        <v>0.1747705169048025</v>
       </c>
       <c r="N79" t="n">
-        <v>1.732880146070929</v>
+        <v>1.97071840548616</v>
       </c>
       <c r="O79" t="n">
-        <v>0.9857277443109286</v>
+        <v>0.7767965726141236</v>
       </c>
       <c r="P79" t="n">
         <v>3</v>
@@ -6383,10 +6383,10 @@
         <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>1.27</v>
+        <v>1.03</v>
       </c>
       <c r="U79" t="n">
-        <v>-0.99</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="80">
@@ -6420,7 +6420,7 @@
         <v>10</v>
       </c>
       <c r="H80" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -6428,22 +6428,22 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="K80" t="n">
-        <v>0.4747417501954173</v>
+        <v>0.582107984774614</v>
       </c>
       <c r="L80" t="n">
-        <v>0.2836891539765768</v>
+        <v>0.2488203096256192</v>
       </c>
       <c r="M80" t="n">
-        <v>0.241569095828006</v>
+        <v>0.1690717055997668</v>
       </c>
       <c r="N80" t="n">
-        <v>1.707914404562829</v>
+        <v>1.995144263949461</v>
       </c>
       <c r="O80" t="n">
-        <v>1.008396441460595</v>
+        <v>0.7560354264249196</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -6458,10 +6458,10 @@
         <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="U80" t="n">
-        <v>-1.01</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="81">
@@ -6495,7 +6495,7 @@
         <v>10</v>
       </c>
       <c r="H81" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -6503,22 +6503,22 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="K81" t="n">
-        <v>0.3536358385154664</v>
+        <v>0.4163904241033615</v>
       </c>
       <c r="L81" t="n">
-        <v>0.2999842056499563</v>
+        <v>0.295094377959854</v>
       </c>
       <c r="M81" t="n">
-        <v>0.3463799558345774</v>
+        <v>0.2885151979367845</v>
       </c>
       <c r="N81" t="n">
-        <v>1.360891721196356</v>
+        <v>1.544265650269938</v>
       </c>
       <c r="O81" t="n">
-        <v>1.339124073153688</v>
+        <v>1.160639971770208</v>
       </c>
       <c r="P81" t="n">
         <v>1</v>
@@ -6533,10 +6533,10 @@
         <v>1</v>
       </c>
       <c r="T81" t="n">
-        <v>-0.36</v>
+        <v>-0.54</v>
       </c>
       <c r="U81" t="n">
-        <v>-0.34</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="82">
@@ -6570,7 +6570,7 @@
         <v>10</v>
       </c>
       <c r="H82" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -6578,22 +6578,22 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="K82" t="n">
-        <v>0.1470678216492108</v>
+        <v>0.2141204748168183</v>
       </c>
       <c r="L82" t="n">
-        <v>0.2328880136836026</v>
+        <v>0.2732715666127267</v>
       </c>
       <c r="M82" t="n">
-        <v>0.6200441646671866</v>
+        <v>0.512607958570455</v>
       </c>
       <c r="N82" t="n">
-        <v>0.6740914786312351</v>
+        <v>0.9156329910631817</v>
       </c>
       <c r="O82" t="n">
-        <v>2.093020507685162</v>
+        <v>1.811095442324092</v>
       </c>
       <c r="P82" t="n">
         <v>0</v>
@@ -6608,10 +6608,10 @@
         <v>3</v>
       </c>
       <c r="T82" t="n">
-        <v>-0.67</v>
+        <v>-0.92</v>
       </c>
       <c r="U82" t="n">
-        <v>0.91</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="83">
@@ -6645,7 +6645,7 @@
         <v>10</v>
       </c>
       <c r="H83" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -6653,22 +6653,22 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="K83" t="n">
-        <v>0.3498055523508008</v>
+        <v>0.4430816760717625</v>
       </c>
       <c r="L83" t="n">
-        <v>0.2999999546175441</v>
+        <v>0.2906238821384762</v>
       </c>
       <c r="M83" t="n">
-        <v>0.3501944930316551</v>
+        <v>0.2662944417897614</v>
       </c>
       <c r="N83" t="n">
-        <v>1.349416611669946</v>
+        <v>1.619868910353764</v>
       </c>
       <c r="O83" t="n">
-        <v>1.350583433712509</v>
+        <v>1.08950720750776</v>
       </c>
       <c r="P83" t="n">
         <v>2</v>
@@ -6683,10 +6683,10 @@
         <v>1</v>
       </c>
       <c r="T83" t="n">
-        <v>-0.35</v>
+        <v>-0.62</v>
       </c>
       <c r="U83" t="n">
-        <v>-0.35</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="84">
@@ -6695,7 +6695,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -6720,7 +6720,7 @@
         <v>10</v>
       </c>
       <c r="H84" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -6728,22 +6728,22 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="K84" t="n">
-        <v>0.4274294504322421</v>
+        <v>0.4996418279676069</v>
       </c>
       <c r="L84" t="n">
-        <v>0.2934053165503133</v>
+        <v>0.2770859519510396</v>
       </c>
       <c r="M84" t="n">
-        <v>0.2791652330174447</v>
+        <v>0.2232722200813535</v>
       </c>
       <c r="N84" t="n">
-        <v>1.57569366784704</v>
+        <v>1.77601143585386</v>
       </c>
       <c r="O84" t="n">
-        <v>1.130901015602647</v>
+        <v>0.9469026121951001</v>
       </c>
       <c r="P84" t="n">
         <v>1</v>
@@ -6758,10 +6758,10 @@
         <v>0</v>
       </c>
       <c r="T84" t="n">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="U84" t="n">
-        <v>-1.13</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="85">
@@ -6795,7 +6795,7 @@
         <v>10</v>
       </c>
       <c r="H85" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -6803,22 +6803,22 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="K85" t="n">
-        <v>0.4565495258953476</v>
+        <v>0.5247138241995496</v>
       </c>
       <c r="L85" t="n">
-        <v>0.2878819866555238</v>
+        <v>0.2694878680167616</v>
       </c>
       <c r="M85" t="n">
-        <v>0.2555684874491286</v>
+        <v>0.2057983077836888</v>
       </c>
       <c r="N85" t="n">
-        <v>1.657530564341567</v>
+        <v>1.84362934061541</v>
       </c>
       <c r="O85" t="n">
-        <v>1.05458744900291</v>
+        <v>0.886882791367828</v>
       </c>
       <c r="P85" t="n">
         <v>4</v>
@@ -6833,10 +6833,10 @@
         <v>0</v>
       </c>
       <c r="T85" t="n">
-        <v>1.34</v>
+        <v>1.16</v>
       </c>
       <c r="U85" t="n">
-        <v>-1.05</v>
+        <v>-0.89</v>
       </c>
     </row>
     <row r="86">
@@ -6870,7 +6870,7 @@
         <v>10</v>
       </c>
       <c r="H86" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -6878,22 +6878,22 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="K86" t="n">
-        <v>0.3193437167575568</v>
+        <v>0.391647807378186</v>
       </c>
       <c r="L86" t="n">
-        <v>0.2988287310944711</v>
+        <v>0.2980165019052042</v>
       </c>
       <c r="M86" t="n">
-        <v>0.3818275521479721</v>
+        <v>0.3103356907166098</v>
       </c>
       <c r="N86" t="n">
-        <v>1.256859881367141</v>
+        <v>1.472959924039762</v>
       </c>
       <c r="O86" t="n">
-        <v>1.444311387538388</v>
+        <v>1.229023574055034</v>
       </c>
       <c r="P86" t="n">
         <v>2</v>
@@ -6908,10 +6908,10 @@
         <v>1</v>
       </c>
       <c r="T86" t="n">
-        <v>-0.26</v>
+        <v>-0.47</v>
       </c>
       <c r="U86" t="n">
-        <v>-0.44</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="87">
@@ -6945,7 +6945,7 @@
         <v>11</v>
       </c>
       <c r="H87" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -6953,22 +6953,22 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="K87" t="n">
-        <v>0.3244444046738956</v>
+        <v>0.4128604882796056</v>
       </c>
       <c r="L87" t="n">
-        <v>0.2991912974055776</v>
+        <v>0.2955854269409564</v>
       </c>
       <c r="M87" t="n">
-        <v>0.3763642979205268</v>
+        <v>0.291554084779438</v>
       </c>
       <c r="N87" t="n">
-        <v>1.272524511427264</v>
+        <v>1.534166891779773</v>
       </c>
       <c r="O87" t="n">
-        <v>1.428284191167158</v>
+        <v>1.17024768127927</v>
       </c>
       <c r="P87" t="n">
         <v>1</v>
@@ -6983,10 +6983,10 @@
         <v>1</v>
       </c>
       <c r="T87" t="n">
-        <v>-0.27</v>
+        <v>-0.53</v>
       </c>
       <c r="U87" t="n">
-        <v>-0.43</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="88">
@@ -7020,7 +7020,7 @@
         <v>11</v>
       </c>
       <c r="H88" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -7028,22 +7028,22 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="K88" t="n">
-        <v>0.3984434434472379</v>
+        <v>0.5131028367117194</v>
       </c>
       <c r="L88" t="n">
-        <v>0.2973365814064059</v>
+        <v>0.2731210532158268</v>
       </c>
       <c r="M88" t="n">
-        <v>0.3042199751463563</v>
+        <v>0.2137761100724538</v>
       </c>
       <c r="N88" t="n">
-        <v>1.49266691174812</v>
+        <v>1.812429563350985</v>
       </c>
       <c r="O88" t="n">
-        <v>1.209996506845475</v>
+        <v>0.9144493834331882</v>
       </c>
       <c r="P88" t="n">
         <v>2</v>
@@ -7058,10 +7058,10 @@
         <v>0</v>
       </c>
       <c r="T88" t="n">
-        <v>1.51</v>
+        <v>1.19</v>
       </c>
       <c r="U88" t="n">
-        <v>-1.21</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="89">
@@ -7095,7 +7095,7 @@
         <v>11</v>
       </c>
       <c r="H89" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -7103,22 +7103,22 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="K89" t="n">
-        <v>0.3161462476961533</v>
+        <v>0.3693790930571558</v>
       </c>
       <c r="L89" t="n">
-        <v>0.2985658285912929</v>
+        <v>0.2995595258841606</v>
       </c>
       <c r="M89" t="n">
-        <v>0.3852879237125538</v>
+        <v>0.3310613810586837</v>
       </c>
       <c r="N89" t="n">
-        <v>1.247004571679753</v>
+        <v>1.407696805055628</v>
       </c>
       <c r="O89" t="n">
-        <v>1.454429599728954</v>
+        <v>1.292743669060211</v>
       </c>
       <c r="P89" t="n">
         <v>2</v>
@@ -7133,10 +7133,10 @@
         <v>3</v>
       </c>
       <c r="T89" t="n">
-        <v>-1.25</v>
+        <v>-1.41</v>
       </c>
       <c r="U89" t="n">
-        <v>1.55</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="90">
@@ -7170,7 +7170,7 @@
         <v>11</v>
       </c>
       <c r="H90" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -7178,22 +7178,22 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="K90" t="n">
-        <v>0.3587147602670938</v>
+        <v>0.4808597147217368</v>
       </c>
       <c r="L90" t="n">
-        <v>0.2999098043438323</v>
+        <v>0.2821572496223481</v>
       </c>
       <c r="M90" t="n">
-        <v>0.341375435389074</v>
+        <v>0.2369830356559152</v>
       </c>
       <c r="N90" t="n">
-        <v>1.376054085145114</v>
+        <v>1.724736393787559</v>
       </c>
       <c r="O90" t="n">
-        <v>1.324036110511055</v>
+        <v>0.9931063565900937</v>
       </c>
       <c r="P90" t="n">
         <v>3</v>
@@ -7208,10 +7208,10 @@
         <v>0</v>
       </c>
       <c r="T90" t="n">
-        <v>1.62</v>
+        <v>1.28</v>
       </c>
       <c r="U90" t="n">
-        <v>-1.32</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="91">
@@ -7245,7 +7245,7 @@
         <v>11</v>
       </c>
       <c r="H91" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -7253,22 +7253,22 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="K91" t="n">
-        <v>0.1708821914560462</v>
+        <v>0.2600925023019317</v>
       </c>
       <c r="L91" t="n">
-        <v>0.2500041113061469</v>
+        <v>0.2890868300873876</v>
       </c>
       <c r="M91" t="n">
-        <v>0.5791136972378069</v>
+        <v>0.4508206676106807</v>
       </c>
       <c r="N91" t="n">
-        <v>0.7626506856742855</v>
+        <v>1.069364336993183</v>
       </c>
       <c r="O91" t="n">
-        <v>1.987345203019568</v>
+        <v>1.64154883291943</v>
       </c>
       <c r="P91" t="n">
         <v>2</v>
@@ -7283,10 +7283,10 @@
         <v>0</v>
       </c>
       <c r="T91" t="n">
-        <v>2.24</v>
+        <v>1.93</v>
       </c>
       <c r="U91" t="n">
-        <v>-1.99</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="92">
@@ -7320,7 +7320,7 @@
         <v>11</v>
       </c>
       <c r="H92" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -7328,22 +7328,22 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="K92" t="n">
-        <v>0.4769833722976818</v>
+        <v>0.5925135198211177</v>
       </c>
       <c r="L92" t="n">
-        <v>0.2831348501331575</v>
+        <v>0.2446208160338759</v>
       </c>
       <c r="M92" t="n">
-        <v>0.2398817775691607</v>
+        <v>0.1628656641450065</v>
       </c>
       <c r="N92" t="n">
-        <v>1.714084967026203</v>
+        <v>2.022161375497229</v>
       </c>
       <c r="O92" t="n">
-        <v>1.00278018284064</v>
+        <v>0.7332178084688953</v>
       </c>
       <c r="P92" t="n">
         <v>3</v>
@@ -7358,10 +7358,10 @@
         <v>0</v>
       </c>
       <c r="T92" t="n">
-        <v>1.29</v>
+        <v>0.98</v>
       </c>
       <c r="U92" t="n">
-        <v>-1</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="93">
@@ -7395,7 +7395,7 @@
         <v>11</v>
       </c>
       <c r="H93" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -7403,22 +7403,22 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="K93" t="n">
-        <v>0.6061792106236664</v>
+        <v>0.7034730718404495</v>
       </c>
       <c r="L93" t="n">
-        <v>0.2389076735153037</v>
+        <v>0.1922788294668309</v>
       </c>
       <c r="M93" t="n">
-        <v>0.1549131158610298</v>
+        <v>0.1042480986927196</v>
       </c>
       <c r="N93" t="n">
-        <v>2.057445305386303</v>
+        <v>2.30269804498818</v>
       </c>
       <c r="O93" t="n">
-        <v>0.7036470210983933</v>
+        <v>0.5050231255449896</v>
       </c>
       <c r="P93" t="n">
         <v>2</v>
@@ -7433,10 +7433,10 @@
         <v>0</v>
       </c>
       <c r="T93" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="U93" t="n">
-        <v>-0.7</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="94">
@@ -7470,7 +7470,7 @@
         <v>11</v>
       </c>
       <c r="H94" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -7478,22 +7478,22 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="K94" t="n">
-        <v>0.1641385013890465</v>
+        <v>0.2148804631748892</v>
       </c>
       <c r="L94" t="n">
-        <v>0.2455002512430807</v>
+        <v>0.2736019196621587</v>
       </c>
       <c r="M94" t="n">
-        <v>0.5903612473678729</v>
+        <v>0.5115176171629521</v>
       </c>
       <c r="N94" t="n">
-        <v>0.7379157554102203</v>
+        <v>0.9182433091868263</v>
       </c>
       <c r="O94" t="n">
-        <v>2.016583993346699</v>
+        <v>1.808154771151015</v>
       </c>
       <c r="P94" t="n">
         <v>0</v>
@@ -7508,10 +7508,10 @@
         <v>3</v>
       </c>
       <c r="T94" t="n">
-        <v>-0.74</v>
+        <v>-0.92</v>
       </c>
       <c r="U94" t="n">
-        <v>0.98</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="95">
@@ -7525,7 +7525,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="D95" s="2" t="n">
@@ -7545,7 +7545,7 @@
         <v>11</v>
       </c>
       <c r="H95" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -7553,22 +7553,22 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="K95" t="n">
-        <v>0.29386930791694</v>
+        <v>0.4147205787273505</v>
       </c>
       <c r="L95" t="n">
-        <v>0.2959408607496345</v>
+        <v>0.2953296720327073</v>
       </c>
       <c r="M95" t="n">
-        <v>0.4101898313334253</v>
+        <v>0.2899497492399422</v>
       </c>
       <c r="N95" t="n">
-        <v>1.177548784500455</v>
+        <v>1.539491408214759</v>
       </c>
       <c r="O95" t="n">
-        <v>1.526510354749911</v>
+        <v>1.165178919752534</v>
       </c>
       <c r="P95" t="n">
         <v>3</v>
@@ -7583,10 +7583,10 @@
         <v>0</v>
       </c>
       <c r="T95" t="n">
-        <v>1.82</v>
+        <v>1.46</v>
       </c>
       <c r="U95" t="n">
-        <v>-1.53</v>
+        <v>-1.17</v>
       </c>
     </row>
   </sheetData>
